--- a/results/UKB-DRS_Calculator.xlsx
+++ b/results/UKB-DRS_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisanaturk/Documents/Oxford_DPhil/Biobank_Analyses/Dementia_risk_project/Manuscript/Supplementary_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{E0E1620A-CAD1-4949-B6AD-E8FF5CE4AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B94F7CE8-14FA-4412-839B-D60FDF45640D}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{E0E1620A-CAD1-4949-B6AD-E8FF5CE4AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{628A3C18-7AF6-4220-BF2F-ACF596C47519}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" activeTab="1" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95B3D4D-1122-414D-9CB5-4AB9572A3F02}">
   <dimension ref="B1:Z1442"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -10197,19 +10197,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4EB25-9C80-B547-9443-AA4112D5F036}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1048576"/>
+    <sheetView topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="16" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="16383" width="11" customWidth="1"/>
     <col min="16384" max="16384" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="28" t="e">
-        <f>F40*100</f>
+        <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F40*100,"NA")</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="28">
-        <f>F41*100</f>
+        <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F41*100,"NA")</f>
         <v>3.9120965541546253</v>
       </c>
     </row>

--- a/results/UKB-DRS_Calculator.xlsx
+++ b/results/UKB-DRS_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisanaturk/Documents/Oxford_DPhil/Biobank_Analyses/Dementia_risk_project/Manuscript/Supplementary_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{E0E1620A-CAD1-4949-B6AD-E8FF5CE4AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{628A3C18-7AF6-4220-BF2F-ACF596C47519}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8A7F66-243B-4A91-B0E5-77007E90C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" activeTab="1" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,16 +69,13 @@
     <t>History of Stroke or Transient Ischaemic Stroke:</t>
   </si>
   <si>
-    <t>Use of Antihypertensive medication:</t>
+    <t>Hypertensive:</t>
   </si>
   <si>
-    <t>Use of Aspirin:</t>
+    <t>High Cholesterol:</t>
   </si>
   <si>
     <t>APOE4 carrier:</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>If APOE information is unavailable, please select "unknown".</t>
@@ -137,13 +135,16 @@
     <t>Stroke/ TIA</t>
   </si>
   <si>
-    <t>Use of Antihypertensives</t>
+    <t>Hypertensive</t>
   </si>
   <si>
-    <t>Use of Aspirin</t>
+    <t>High Cholesterol</t>
   </si>
   <si>
     <t>APOE4 carrier</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>UKBDRS-APOE sum of coefficients:</t>
@@ -558,6 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,7 +578,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95B3D4D-1122-414D-9CB5-4AB9572A3F02}">
   <dimension ref="B1:Z1442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1464,13 +1465,13 @@
   <sheetData>
     <row r="1" spans="2:8" hidden="1"/>
     <row r="2" spans="2:8" ht="69.95" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="C3" s="3"/>
@@ -1483,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
@@ -1617,14 +1618,14 @@
         <v>12</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6" s="2" customFormat="1">
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="4"/>
@@ -1637,42 +1638,42 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="20">
+        <f>Hidden!F43</f>
+        <v>5.6883741428118997</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="20" t="e">
-        <f>Hidden!F43</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
+      <c r="B28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
-      <c r="B28" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="21">
         <f>Hidden!F44</f>
-        <v>3.9120965541546253</v>
+        <v>8.9072716344553484</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -10195,42 +10196,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4EB25-9C80-B547-9443-AA4112D5F036}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="25.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="35" hidden="1" customWidth="1"/>
     <col min="7" max="16383" width="11" customWidth="1"/>
     <col min="16384" max="16384" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10243,42 +10244,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="28">
-        <v>0.18861</v>
+        <v>0.18906000000000001</v>
       </c>
       <c r="E3" s="29">
         <f>Main!D4</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F3" s="38">
         <f>D3*E3</f>
-        <v>11.316599999999999</v>
+        <v>12.2889</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="36"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="30">
-        <v>0.17968000000000001</v>
+        <v>0.17974999999999999</v>
       </c>
       <c r="E4" s="29">
         <f>Main!D4</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" ref="F4:F30" si="0">D4*E4</f>
-        <v>10.780800000000001</v>
+        <v>11.68375</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10291,16 +10292,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="28">
-        <v>0.28603000000000001</v>
+        <v>0.28544000000000003</v>
       </c>
       <c r="E6" s="29">
         <f>IF(Main!D6="Yes",1,0)</f>
@@ -10308,7 +10309,7 @@
       </c>
       <c r="F6" s="38">
         <f t="shared" ref="F6:F7" si="1">D6*E6</f>
-        <v>0.28603000000000001</v>
+        <v>0.28544000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10317,10 +10318,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="30">
-        <v>0.41322999999999999</v>
+        <v>0.41210999999999998</v>
       </c>
       <c r="E7" s="29">
         <f>IF(Main!D6="Yes",1,0)</f>
@@ -10328,7 +10329,7 @@
       </c>
       <c r="F7" s="38">
         <f t="shared" si="1"/>
-        <v>0.41322999999999999</v>
+        <v>0.41210999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10341,16 +10342,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="28">
-        <v>-3.9469999999999998E-2</v>
+        <v>-3.9019999999999999E-2</v>
       </c>
       <c r="E9" s="29">
         <f>Main!D8</f>
@@ -10358,17 +10359,17 @@
       </c>
       <c r="F9" s="38">
         <f t="shared" si="0"/>
-        <v>-0.9867499999999999</v>
+        <v>-0.97550000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="36"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="30">
-        <v>-4.4400000000000002E-2</v>
+        <v>-4.3830000000000001E-2</v>
       </c>
       <c r="E10" s="29">
         <f>Main!D8</f>
@@ -10376,7 +10377,7 @@
       </c>
       <c r="F10" s="38">
         <f t="shared" si="0"/>
-        <v>-1.1100000000000001</v>
+        <v>-1.09575</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10395,10 +10396,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="30">
-        <v>0.28072999999999998</v>
+        <v>0.27701999999999999</v>
       </c>
       <c r="E12" s="29">
         <f>IF(Main!D10="Yes",1,0)</f>
@@ -10406,7 +10407,7 @@
       </c>
       <c r="F12" s="38">
         <f t="shared" si="0"/>
-        <v>0.28072999999999998</v>
+        <v>0.27701999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -10415,10 +10416,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="30">
-        <v>0.24928</v>
+        <v>0.24526999999999999</v>
       </c>
       <c r="E13" s="29">
         <f>IF(Main!D10="Yes",1,0)</f>
@@ -10426,7 +10427,7 @@
       </c>
       <c r="F13" s="38">
         <f t="shared" si="0"/>
-        <v>0.24928</v>
+        <v>0.24526999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10439,16 +10440,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="28">
-        <v>0.53912000000000004</v>
+        <v>0.54844999999999999</v>
       </c>
       <c r="E15" s="29">
         <f>IF(Main!D12="Yes",1,0)</f>
@@ -10465,10 +10466,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="30">
-        <v>0.55652999999999997</v>
+        <v>0.54864999999999997</v>
       </c>
       <c r="E16" s="29">
         <f>IF(Main!D12="Yes",1,0)</f>
@@ -10489,16 +10490,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="28">
-        <v>0.54122999999999999</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="E18" s="29">
         <f>IF(Main!D14="Yes",1,0)</f>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F18" s="38">
         <f t="shared" si="0"/>
-        <v>0.54122999999999999</v>
+        <v>0.53649999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10515,10 +10516,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="30">
-        <v>0.53730999999999995</v>
+        <v>0.53176999999999996</v>
       </c>
       <c r="E19" s="29">
         <f>IF(Main!D14="Yes",1,0)</f>
@@ -10526,7 +10527,7 @@
       </c>
       <c r="F19" s="38">
         <f t="shared" si="0"/>
-        <v>0.53730999999999995</v>
+        <v>0.53176999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10539,16 +10540,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="28">
-        <v>0.65547999999999995</v>
+        <v>0.68576999999999999</v>
       </c>
       <c r="E21" s="29">
         <f>IF(Main!D16="Yes",1,0)</f>
@@ -10556,7 +10557,7 @@
       </c>
       <c r="F21" s="38">
         <f t="shared" si="0"/>
-        <v>0.65547999999999995</v>
+        <v>0.68576999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10565,10 +10566,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="30">
-        <v>0.66173999999999999</v>
+        <v>0.68223999999999996</v>
       </c>
       <c r="E22" s="29">
         <f>IF(Main!D16="Yes",1,0)</f>
@@ -10576,7 +10577,7 @@
       </c>
       <c r="F22" s="38">
         <f t="shared" si="0"/>
-        <v>0.66173999999999999</v>
+        <v>0.68223999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10589,16 +10590,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="28">
-        <v>0.14174</v>
+        <v>0.20688999999999999</v>
       </c>
       <c r="E24" s="29">
         <f>IF(Main!D18="Yes",1,0)</f>
@@ -10606,7 +10607,7 @@
       </c>
       <c r="F24" s="38">
         <f t="shared" si="0"/>
-        <v>0.14174</v>
+        <v>0.20688999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10615,10 +10616,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="30">
-        <v>0.14602999999999999</v>
+        <v>0.17816000000000001</v>
       </c>
       <c r="E25" s="29">
         <f>IF(Main!D18="Yes",1,0)</f>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F25" s="38">
         <f t="shared" si="0"/>
-        <v>0.14602999999999999</v>
+        <v>0.17816000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.100000000000001">
@@ -10639,16 +10640,16 @@
     </row>
     <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="28">
-        <v>0.14349000000000001</v>
+        <v>4.0289999999999999E-2</v>
       </c>
       <c r="E27" s="29">
         <f>IF(Main!D20="Yes",1,0)</f>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F27" s="38">
         <f t="shared" si="0"/>
-        <v>0.14349000000000001</v>
+        <v>4.0289999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
@@ -10665,10 +10666,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="28">
-        <v>0.17352000000000001</v>
+        <v>0.12330000000000001</v>
       </c>
       <c r="E28" s="29">
         <f>IF(Main!D20="Yes",1,0)</f>
@@ -10676,7 +10677,7 @@
       </c>
       <c r="F28" s="38">
         <f t="shared" si="0"/>
-        <v>0.17352000000000001</v>
+        <v>0.12330000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5">
@@ -10689,24 +10690,24 @@
     </row>
     <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="51">
-        <v>1.1606000000000001</v>
-      </c>
-      <c r="E30" s="29" t="str">
+        <v>25</v>
+      </c>
+      <c r="D30" s="45">
+        <v>1.1608099999999999</v>
+      </c>
+      <c r="E30" s="29">
         <f>IF(Main!D22="Yes",1, IF(Main!D22="No",0,"N/A"))</f>
-        <v>N/A</v>
-      </c>
-      <c r="F30" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="F30" s="38">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10715,7 +10716,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
@@ -10724,7 +10725,7 @@
     <row r="32" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A32" s="39"/>
       <c r="B32" s="40" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="41"/>
@@ -10736,86 +10737,86 @@
       <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="28" t="e">
+      <c r="E34" s="51"/>
+      <c r="F34" s="28">
         <f>SUM(F3,F6,F9,,F12,F15,F18,F21,F24,F27,F30)</f>
-        <v>#VALUE!</v>
+        <v>13.34531</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="28">
         <f>SUM(F4,F7,F10,,F13,F16,F19,F22,F25,F28)</f>
-        <v>11.851910000000002</v>
+        <v>12.76085</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="28" t="e">
-        <f>-16.09924+F34</f>
-        <v>#VALUE!</v>
+      <c r="E37" s="51"/>
+      <c r="F37" s="28">
+        <f>-16.15349+F34</f>
+        <v>-2.8081800000000019</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="50"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="28">
-        <f>-15.0531+F35</f>
-        <v>-3.2011899999999986</v>
+        <f>-15.08586+F35</f>
+        <v>-2.3250100000000007</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="28" t="e">
+      <c r="E40" s="51"/>
+      <c r="F40" s="28">
         <f>1/(1+EXP(-(F37)))</f>
-        <v>#VALUE!</v>
+        <v>5.6883741428119E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="50"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="28">
         <f>1/(1+EXP(-(F38)))</f>
-        <v>3.9120965541546253E-2</v>
+        <v>8.9072716344553479E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="28" t="e">
+      <c r="E43" s="51"/>
+      <c r="F43" s="28">
         <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F40*100,"NA")</f>
-        <v>#VALUE!</v>
+        <v>5.6883741428118997</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="50"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="28">
         <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F41*100,"NA")</f>
-        <v>3.9120965541546253</v>
+        <v>8.9072716344553484</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75"/>

--- a/results/UKB-DRS_Calculator.xlsx
+++ b/results/UKB-DRS_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisanaturk/Documents/Oxford_DPhil/Biobank_Analyses/Dementia_risk_project/Manuscript/Supplementary_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8A7F66-243B-4A91-B0E5-77007E90C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9B9179-A2C4-4AA1-BA41-5577B9418F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" activeTab="1" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" firstSheet="1" activeTab="1" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>To calculate predicted dementia risk based on the UKBDRS, please complete the grey boxes below. Where indicated, please click on the cell to select an option from the drop down list. Note that this is not a diagnostic tool.</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>High Cholesterol:</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Lives Alone</t>
   </si>
   <si>
     <t>APOE4 carrier:</t>
@@ -141,16 +150,13 @@
     <t>High Cholesterol</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>APOE4 carrier</t>
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>UKBDRS-APOE sum of coefficients:</t>
-  </si>
-  <si>
-    <t>UKBDRS sum of coefficients:</t>
   </si>
   <si>
     <t>UKBDRS-APOE linear predictor:</t>
@@ -178,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +239,13 @@
       <name val="Liberation Sans"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -266,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -451,11 +464,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,7 +639,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,6 +655,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -941,13 +1035,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1106,6 +1200,148 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="8356600" y="4108450"/>
+          <a:ext cx="152400" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Triangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955C6C7F-5308-45C8-838A-C98237DD27C2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2DDD5DF-73DB-43D9-8E87-96AFD8FEF41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8356600" y="4498975"/>
+          <a:ext cx="152400" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Triangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A00D181-2CEF-4A1F-8360-A4DE21ADF30A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{955C6C7F-5308-45C8-838A-C98237DD27C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8356600" y="4498975"/>
           <a:ext cx="152400" cy="88900"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -1447,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95B3D4D-1122-414D-9CB5-4AB9572A3F02}">
-  <dimension ref="B1:Z1442"/>
+  <dimension ref="B1:Z1446"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1465,13 +1701,13 @@
   <sheetData>
     <row r="1" spans="2:8" hidden="1"/>
     <row r="2" spans="2:8" ht="69.95" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="C3" s="3"/>
@@ -1484,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
@@ -1512,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1618,181 +1854,189 @@
         <v>12</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" s="2" customFormat="1">
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="25"/>
+    <row r="23" spans="2:6" s="2" customFormat="1" ht="15.75">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" s="2" customFormat="1">
-      <c r="C24" s="24"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+    <row r="24" spans="2:6" s="2" customFormat="1" ht="15.75">
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+    <row r="25" spans="2:6" s="2" customFormat="1" ht="15.75">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
-      <c r="B26" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="20">
-        <f>Hidden!F43</f>
-        <v>5.6883741428118997</v>
-      </c>
-      <c r="E26" s="22" t="s">
+    <row r="26" spans="2:6" s="2" customFormat="1" ht="15.75">
+      <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="D26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:6" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="48"/>
+    <row r="27" spans="2:6" s="2" customFormat="1">
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
-      <c r="B28" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="21">
-        <f>Hidden!F44</f>
-        <v>8.9072716344553484</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>15</v>
-      </c>
+    <row r="28" spans="2:6" s="2" customFormat="1">
+      <c r="C28" s="24"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6" s="2" customFormat="1">
-      <c r="B29" s="17"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="2:6" s="2" customFormat="1">
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="4"/>
+    <row r="29" spans="2:6" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
+      <c r="B30" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="20">
+        <f>Hidden!F46</f>
+        <v>45.424083574651874</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6" s="2" customFormat="1">
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="4"/>
+    <row r="31" spans="2:6" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6" s="2" customFormat="1">
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="4"/>
+    <row r="32" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
+      <c r="B32" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="21">
+        <f>Hidden!F47</f>
+        <v>35.162135426019617</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="3:6" s="2" customFormat="1">
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="3:6" s="2" customFormat="1">
+    <row r="33" spans="2:6" s="2" customFormat="1">
+      <c r="B33" s="17"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="2:6" s="2" customFormat="1">
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="3:6" s="2" customFormat="1">
+    <row r="35" spans="2:6" s="2" customFormat="1">
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="3:6" s="2" customFormat="1">
+    <row r="36" spans="2:6" s="2" customFormat="1">
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="3:6" s="2" customFormat="1">
+    <row r="37" spans="2:6" s="2" customFormat="1">
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="3:6" s="2" customFormat="1">
+    <row r="38" spans="2:6" s="2" customFormat="1">
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="3:6" s="2" customFormat="1">
+    <row r="39" spans="2:6" s="2" customFormat="1">
       <c r="C39" s="3"/>
       <c r="D39" s="9"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="3:6" s="2" customFormat="1">
+    <row r="40" spans="2:6" s="2" customFormat="1">
       <c r="C40" s="3"/>
       <c r="D40" s="9"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="3:6" s="2" customFormat="1">
+    <row r="41" spans="2:6" s="2" customFormat="1">
       <c r="C41" s="3"/>
       <c r="D41" s="9"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="3:6" s="2" customFormat="1">
+    <row r="42" spans="2:6" s="2" customFormat="1">
       <c r="C42" s="3"/>
       <c r="D42" s="9"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="3:6" s="2" customFormat="1">
+    <row r="43" spans="2:6" s="2" customFormat="1">
       <c r="C43" s="3"/>
       <c r="D43" s="9"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="3:6" s="2" customFormat="1">
+    <row r="44" spans="2:6" s="2" customFormat="1">
       <c r="C44" s="3"/>
       <c r="D44" s="9"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="3:6" s="2" customFormat="1">
+    <row r="45" spans="2:6" s="2" customFormat="1">
       <c r="C45" s="3"/>
       <c r="D45" s="9"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="3:6" s="2" customFormat="1">
+    <row r="46" spans="2:6" s="2" customFormat="1">
       <c r="C46" s="3"/>
       <c r="D46" s="9"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="3:6" s="2" customFormat="1">
+    <row r="47" spans="2:6" s="2" customFormat="1">
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="3:6" s="2" customFormat="1">
+    <row r="48" spans="2:6" s="2" customFormat="1">
       <c r="C48" s="3"/>
       <c r="D48" s="9"/>
       <c r="E48" s="4"/>
@@ -10126,16 +10370,40 @@
       <c r="E1436" s="4"/>
       <c r="F1436" s="4"/>
     </row>
-    <row r="1440" spans="3:6" ht="15.75"/>
-    <row r="1441" ht="15.75"/>
-    <row r="1442" ht="15.75"/>
+    <row r="1437" spans="3:6" s="2" customFormat="1">
+      <c r="C1437" s="3"/>
+      <c r="D1437" s="9"/>
+      <c r="E1437" s="4"/>
+      <c r="F1437" s="4"/>
+    </row>
+    <row r="1438" spans="3:6" s="2" customFormat="1">
+      <c r="C1438" s="3"/>
+      <c r="D1438" s="9"/>
+      <c r="E1438" s="4"/>
+      <c r="F1438" s="4"/>
+    </row>
+    <row r="1439" spans="3:6" s="2" customFormat="1">
+      <c r="C1439" s="3"/>
+      <c r="D1439" s="9"/>
+      <c r="E1439" s="4"/>
+      <c r="F1439" s="4"/>
+    </row>
+    <row r="1440" spans="3:6" s="2" customFormat="1">
+      <c r="C1440" s="3"/>
+      <c r="D1440" s="9"/>
+      <c r="E1440" s="4"/>
+      <c r="F1440" s="4"/>
+    </row>
+    <row r="1444" ht="15.75"/>
+    <row r="1445" ht="15.75"/>
+    <row r="1446" ht="15.75"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{1FE4C6C9-6C8E-A64C-873B-4A0767F3D078}">
@@ -10151,7 +10419,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D470F811-6CB3-E443-9310-05237400DA9A}">
           <x14:formula1>
             <xm:f>Hidden!$B$15:$B$16</xm:f>
@@ -10174,19 +10442,37 @@
           <x14:formula1>
             <xm:f>Hidden!$B$24:$B$25</xm:f>
           </x14:formula1>
-          <xm:sqref>D18 D20</xm:sqref>
+          <xm:sqref>D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E51EE60A-30A1-6240-A3D4-E0219D417962}">
           <x14:formula1>
-            <xm:f>Hidden!$B$30:$B$32</xm:f>
+            <xm:f>Hidden!$B$36:$B$38</xm:f>
           </x14:formula1>
-          <xm:sqref>D22</xm:sqref>
+          <xm:sqref>D26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A55AFCB7-A06F-4449-AB35-52A40F8D0AE0}">
           <x14:formula1>
             <xm:f>Hidden!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D6 D10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8778B416-1695-4CEA-925A-870738584C74}">
+          <x14:formula1>
+            <xm:f>Hidden!$B$30:$B$31</xm:f>
+          </x14:formula1>
+          <xm:sqref>D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{004F9C87-3D14-4F22-A8AC-A64DB08FF074}">
+          <x14:formula1>
+            <xm:f>Hidden!$B$33:$B$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>D24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98D44D74-2A47-4C73-B327-F18F0D281699}">
+          <x14:formula1>
+            <xm:f>Hidden!$B$27:$B$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10196,10 +10482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4EB25-9C80-B547-9443-AA4112D5F036}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1048576"/>
+      <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -10210,28 +10496,29 @@
     <col min="4" max="4" width="17.125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="35" hidden="1" customWidth="1"/>
-    <col min="7" max="16383" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
+    <col min="8" max="16383" width="11" customWidth="1"/>
     <col min="16384" max="16384" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10244,42 +10531,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="28">
-        <v>0.18906000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="E3" s="29">
         <f>Main!D4</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F3" s="38">
-        <f>D3*E3</f>
-        <v>12.2889</v>
+        <f>D3*(E3-59.97)</f>
+        <v>1.8555500000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="36"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="30">
-        <v>0.17974999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E4" s="29">
         <f>Main!D4</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F4" s="38">
-        <f t="shared" ref="F4:F30" si="0">D4*E4</f>
-        <v>11.68375</v>
+        <f>D4*(E4-59.97)</f>
+        <v>1.7853400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10292,24 +10579,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="28">
-        <v>0.28544000000000003</v>
+        <v>0.311</v>
       </c>
       <c r="E6" s="29">
         <f>IF(Main!D6="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F6" s="38">
-        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
-        <v>0.28544000000000003</v>
+        <f t="shared" ref="F6:F7" si="0">D6*E6</f>
+        <v>0.311</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10318,18 +10605,18 @@
         <v>7</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="30">
-        <v>0.41210999999999998</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="E7" s="29">
         <f>IF(Main!D6="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" si="1"/>
-        <v>0.41210999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10342,42 +10629,42 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="28">
-        <v>-3.9019999999999999E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E9" s="29">
         <f>Main!D8</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F9" s="38">
-        <f t="shared" si="0"/>
-        <v>-0.97550000000000003</v>
+        <f>D9*(E9-13.54)</f>
+        <v>0.13451999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="36"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="30">
-        <v>-4.3830000000000001E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E10" s="29">
         <f>Main!D8</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F10" s="38">
-        <f t="shared" si="0"/>
-        <v>-1.09575</v>
+        <f>D10*(E10-13.54)</f>
+        <v>0.14513999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10396,18 +10683,18 @@
         <v>3</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="30">
-        <v>0.27701999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="E12" s="29">
         <f>IF(Main!D10="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F12" s="38">
-        <f t="shared" si="0"/>
-        <v>0.27701999999999999</v>
+        <f t="shared" ref="F12:F36" si="1">D12*E12</f>
+        <v>0.247</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -10416,18 +10703,18 @@
         <v>7</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="30">
-        <v>0.24526999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E13" s="29">
         <f>IF(Main!D10="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F13" s="38">
-        <f t="shared" si="0"/>
-        <v>0.24526999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10440,23 +10727,23 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" s="28">
-        <v>0.54844999999999999</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="E15" s="29">
         <f>IF(Main!D12="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10466,17 +10753,17 @@
         <v>7</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="30">
-        <v>0.54864999999999997</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="E16" s="29">
         <f>IF(Main!D12="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10490,24 +10777,24 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" s="28">
-        <v>0.53649999999999998</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E18" s="29">
         <f>IF(Main!D14="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F18" s="38">
-        <f t="shared" si="0"/>
-        <v>0.53649999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10516,18 +10803,18 @@
         <v>7</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D19" s="30">
-        <v>0.53176999999999996</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E19" s="29">
         <f>IF(Main!D14="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F19" s="38">
-        <f t="shared" si="0"/>
-        <v>0.53176999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10540,24 +10827,24 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" s="28">
-        <v>0.68576999999999999</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="E21" s="29">
         <f>IF(Main!D16="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F21" s="38">
-        <f t="shared" si="0"/>
-        <v>0.68576999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10566,18 +10853,18 @@
         <v>7</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" s="30">
-        <v>0.68223999999999996</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="E22" s="29">
         <f>IF(Main!D16="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F22" s="38">
-        <f t="shared" si="0"/>
-        <v>0.68223999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10590,24 +10877,24 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" s="28">
-        <v>0.20688999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="E24" s="29">
         <f>IF(Main!D18="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F24" s="38">
-        <f t="shared" si="0"/>
-        <v>0.20688999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10616,18 +10903,18 @@
         <v>7</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D25" s="30">
-        <v>0.17816000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="E25" s="29">
         <f>IF(Main!D18="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F25" s="38">
-        <f t="shared" si="0"/>
-        <v>0.17816000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.159</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.100000000000001">
@@ -10640,24 +10927,24 @@
     </row>
     <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D27" s="28">
-        <v>4.0289999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E27" s="29">
         <f>IF(Main!D20="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F27" s="38">
-        <f t="shared" si="0"/>
-        <v>4.0289999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
@@ -10666,173 +10953,254 @@
         <v>7</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" s="28">
-        <v>0.12330000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="E28" s="29">
         <f>IF(Main!D20="Yes",1,0)</f>
         <v>1</v>
       </c>
       <c r="F28" s="38">
-        <f t="shared" si="0"/>
-        <v>0.12330000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.104</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="31"/>
       <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="36" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="45">
-        <v>1.1608099999999999</v>
+        <v>28</v>
+      </c>
+      <c r="D30" s="56">
+        <v>0.16400000000000001</v>
       </c>
       <c r="E30" s="29">
-        <f>IF(Main!D22="Yes",1, IF(Main!D22="No",0,"N/A"))</f>
-        <v>0</v>
+        <f>IF(Main!D22="Male",1,0)</f>
+        <v>1</v>
       </c>
       <c r="F30" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="36"/>
       <c r="B31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="56">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E31" s="29">
+        <f>IF(Main!D22="Male",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="38">
+        <f t="shared" si="1"/>
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
+      <c r="A32" s="36"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E33" s="29">
+        <f>IF(Main!D24="Yes",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="36"/>
+      <c r="B34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="38"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.100000000000001" thickBot="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="D34" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="28">
-        <f>SUM(F3,F6,F9,,F12,F15,F18,F21,F24,F27,F30)</f>
-        <v>13.34531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="D35" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="28">
-        <f>SUM(F4,F7,F10,,F13,F16,F19,F22,F25,F28)</f>
-        <v>12.76085</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="D37" s="51" t="s">
+      <c r="C34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="56">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E34" s="29">
+        <f>IF(Main!D24="Yes",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="38">
+        <f t="shared" si="1"/>
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5">
+      <c r="A35" s="36"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="28">
-        <f>-16.15349+F34</f>
-        <v>-2.8081800000000019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="D38" s="51" t="s">
+      <c r="B36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="57">
+        <v>1.129</v>
+      </c>
+      <c r="E36" s="53">
+        <f>IF(Main!D26="Yes",1, IF(Main!D26="No",0,"N/A"))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="36"/>
+      <c r="B37" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.100000000000001" thickBot="1">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="28">
-        <f>-15.08586+F35</f>
-        <v>-2.3250100000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="D40" s="51" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="18"/>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.95" customHeight="1">
+      <c r="D40" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="28">
-        <f>1/(1+EXP(-(F37)))</f>
-        <v>5.6883741428119E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="D41" s="51" t="s">
+        <f>SUM(F3,F6,F9,,F12,F15,F18,F21,F24,F27,F30,F33,F36)</f>
+        <v>4.2760700000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.95" customHeight="1">
+      <c r="D41" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="28">
-        <f>1/(1+EXP(-(F38)))</f>
-        <v>8.9072716344553479E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="D43" s="51" t="s">
+        <f>SUM(F4,F7,F10,,F13,F16,F19,F22,F25,F28,F31,F34)</f>
+        <v>4.3734799999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75">
+      <c r="D43" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="28">
-        <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F40*100,"NA")</f>
-        <v>5.6883741428118997</v>
+      <c r="E43" s="59"/>
+      <c r="F43" s="58">
+        <f>1-0.9916195^EXP(F40)</f>
+        <v>0.45424083574651875</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="28">
-        <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F41*100,"NA")</f>
-        <v>8.9072716344553484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75"/>
-    <row r="47" spans="1:6" ht="15.75"/>
-    <row r="48" spans="1:6" ht="15.75"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="55">
+        <f>1-0.9945524^EXP(F41)</f>
+        <v>0.35162135426019614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="D46" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="50"/>
+      <c r="F46" s="28">
+        <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F43*100,"NA")</f>
+        <v>45.424083574651874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="28">
+        <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F44*100,"NA")</f>
+        <v>35.162135426019617</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75"/>
+    <row r="50" ht="15.75"/>
+    <row r="51" ht="15.75"/>
+    <row r="52" ht="15.75"/>
+    <row r="53" ht="15.75"/>
+    <row r="54" ht="15.75"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e3VDwt9Yey2xeHzzZsb4wDefRxqUK+Hh5XLcMroOmddREIzcwejtCdwp4pwKccYr2rCCNiIXx+fk2BCGrBBstg==" saltValue="1OAEER3kaXkJrq6L6V8I2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="8">
+  <mergeCells count="6">
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/UKB-DRS_Calculator.xlsx
+++ b/results/UKB-DRS_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26809"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisanaturk/Documents/Oxford_DPhil/Biobank_Analyses/Dementia_risk_project/Manuscript/Supplementary_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9B9179-A2C4-4AA1-BA41-5577B9418F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE81A2E1-ED26-43B7-9BCF-2CCB8BCCEC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" firstSheet="1" activeTab="1" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="23460" windowHeight="14580" xr2:uid="{6004D5AF-BE6E-984F-901F-4E7FEE085423}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
-    <t>To calculate predicted dementia risk based on the UKBDRS, please complete the grey boxes below. Where indicated, please click on the cell to select an option from the drop down list. Note that this is not a diagnostic tool.</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">To calculate predicted dementia risk based on the UKBDRS, please complete the grey boxes below. Where indicated, please click on the cell to select an option from the drop down list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Note that this is not a diagnostic tool and is not suitable for mass screening until further validation</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>.
+A probability of 5% or higher is considered "at risk", while a score below 5% is considered "lower risk". We stress that this tool is only a prediction, and does not represent a definitive outcome. Given the factors included in the score, there are lifestyle modifications which can be made to reduce individual risk.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Age, in years: </t>
@@ -48,19 +76,19 @@
     <t>Parental history of Dementia:</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
   <si>
     <t>Education, in years:</t>
   </si>
   <si>
-    <t>Townsend Material Deprivation</t>
+    <t>Socioeconomic disadvantage (material deprivation)</t>
   </si>
   <si>
     <t>Type I or II Diabetes:</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Current or history of Depression:</t>
@@ -78,7 +106,7 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Female</t>
   </si>
   <si>
     <t>Lives Alone</t>
@@ -117,6 +145,15 @@
     <t>Model coefficients * Respondent Values</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Predicted risk excluding APOE</t>
+  </si>
+  <si>
+    <t>Predicted risk including APOE</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -135,6 +172,9 @@
     <t>Education</t>
   </si>
   <si>
+    <t>Townsend Material Deprivation</t>
+  </si>
+  <si>
     <t>Diabetes</t>
   </si>
   <si>
@@ -150,7 +190,7 @@
     <t>High Cholesterol</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>Male</t>
   </si>
   <si>
     <t>APOE4 carrier</t>
@@ -176,6 +216,12 @@
   <si>
     <t>UKB-DRS-APOE predicted risk:</t>
   </si>
+  <si>
+    <t>no apoe</t>
+  </si>
+  <si>
+    <t>apoe</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +292,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -279,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -531,11 +590,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,6 +722,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,18 +760,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,6 +775,1069 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Predicted 14-year risk</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hidden!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted risk excluding APOE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hidden!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hidden!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3004741614408029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-920F-4C74-9C2A-149068C08475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hidden!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted risk including APOE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hidden!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hidden!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9641760056954869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-920F-4C74-9C2A-149068C08475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128190056"/>
+        <c:axId val="978321271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128190056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="978321271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="978321271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted risk (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128190056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,6 +2534,45 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEEA50B4-F30C-FC92-6223-097D9F11F570}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4A00D181-2CEF-4A1F-8360-A4DE21ADF30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1685,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95B3D4D-1122-414D-9CB5-4AB9572A3F02}">
   <dimension ref="B1:Z1446"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1700,14 +2890,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" hidden="1"/>
-    <row r="2" spans="2:8" ht="69.95" customHeight="1">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="2:8" ht="152.25" customHeight="1">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="C3" s="3"/>
@@ -1720,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
@@ -1748,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1793,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" s="19"/>
     </row>
@@ -1808,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" s="19"/>
     </row>
@@ -1886,7 +3076,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="4"/>
@@ -1906,19 +3096,19 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="49"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="20">
         <f>Hidden!F46</f>
-        <v>45.424083574651874</v>
+        <v>4.9641760056954869</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>18</v>
@@ -1926,19 +3116,19 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6" s="2" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="47"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" s="2" customFormat="1" ht="17.100000000000001" thickBot="1">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="21">
         <f>Hidden!F47</f>
-        <v>35.162135426019617</v>
+        <v>3.3004741614408029</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>18</v>
@@ -10419,7 +11609,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D470F811-6CB3-E443-9310-05237400DA9A}">
           <x14:formula1>
             <xm:f>Hidden!$B$15:$B$16</xm:f>
@@ -10452,9 +11642,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A55AFCB7-A06F-4449-AB35-52A40F8D0AE0}">
           <x14:formula1>
-            <xm:f>Hidden!#REF!</xm:f>
+            <xm:f>Hidden!$B$12:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D6 D10</xm:sqref>
+          <xm:sqref>D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8778B416-1695-4CEA-925A-870738584C74}">
           <x14:formula1>
@@ -10474,6 +11664,12 @@
           </x14:formula1>
           <xm:sqref>D20</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{660750D9-D953-4880-8F20-E6321F060350}">
+          <x14:formula1>
+            <xm:f>Hidden!$B$6:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -10482,13 +11678,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4EB25-9C80-B547-9443-AA4112D5F036}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.625" style="16" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" hidden="1" customWidth="1"/>
@@ -10497,11 +11693,11 @@
     <col min="5" max="5" width="27" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="35" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
-    <col min="8" max="16383" width="11" customWidth="1"/>
-    <col min="16384" max="16384" width="8" customWidth="1"/>
+    <col min="8" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="32" t="s">
         <v>20</v>
       </c>
@@ -10520,56 +11716,85 @@
       <c r="F1" s="35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="36"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="27"/>
       <c r="E2" s="26"/>
       <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="36" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="28">
         <v>0.185</v>
       </c>
       <c r="E3" s="29">
         <f>Main!D4</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F3" s="38">
         <f>D3*(E3-59.97)</f>
-        <v>1.8555500000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
+        <v>5.5500000000002101E-3</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <f>F47</f>
+        <v>3.3004741614408029</v>
+      </c>
+      <c r="K3">
+        <f>F46</f>
+        <v>4.9641760056954869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="36"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="30">
         <v>0.17799999999999999</v>
       </c>
       <c r="E4" s="29">
         <f>Main!D4</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4" s="38">
         <f>D4*(E4-59.97)</f>
-        <v>1.7853400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5.3400000000002022E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="36"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -10577,49 +11802,49 @@
       <c r="E5" s="29"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:11">
       <c r="A6" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="28">
         <v>0.311</v>
       </c>
       <c r="E6" s="29">
         <f>IF(Main!D6="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="38">
         <f t="shared" ref="F6:F7" si="0">D6*E6</f>
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="36"/>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="30">
         <v>0.43099999999999999</v>
       </c>
       <c r="E7" s="29">
         <f>IF(Main!D6="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="38">
         <f t="shared" si="0"/>
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="36"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -10627,47 +11852,47 @@
       <c r="E8" s="29"/>
       <c r="F8" s="38"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:11">
       <c r="A9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="28">
         <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E9" s="29">
         <f>Main!D8</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="38">
         <f>D9*(E9-13.54)</f>
-        <v>0.13451999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>5.8519999999999968E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="36"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="30">
         <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E10" s="29">
         <f>Main!D8</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="38">
         <f>D10*(E10-13.54)</f>
-        <v>0.14513999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>6.3139999999999974E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="36"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -10675,49 +11900,49 @@
       <c r="E11" s="29"/>
       <c r="F11" s="38"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:11">
       <c r="A12" s="36" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="30">
         <v>0.247</v>
       </c>
       <c r="E12" s="29">
         <f>IF(Main!D10="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="38">
         <f t="shared" ref="F12:F36" si="1">D12*E12</f>
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="36"/>
       <c r="B13" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="30">
         <v>0.22800000000000001</v>
       </c>
       <c r="E13" s="29">
         <f>IF(Main!D10="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="38">
         <f t="shared" si="1"/>
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="36"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -10725,46 +11950,46 @@
       <c r="E14" s="29"/>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:11">
       <c r="A15" s="36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="28">
         <v>0.52600000000000002</v>
       </c>
       <c r="E15" s="29">
         <f>IF(Main!D12="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="36"/>
       <c r="B16" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="30">
         <v>0.53600000000000003</v>
       </c>
       <c r="E16" s="29">
         <f>IF(Main!D12="Yes",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10777,13 +12002,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18" s="28">
         <v>0.56699999999999995</v>
@@ -10800,10 +12025,10 @@
     <row r="19" spans="1:6">
       <c r="A19" s="36"/>
       <c r="B19" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="30">
         <v>0.55600000000000005</v>
@@ -10827,13 +12052,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" s="28">
         <v>0.64300000000000002</v>
@@ -10850,10 +12075,10 @@
     <row r="22" spans="1:6">
       <c r="A22" s="36"/>
       <c r="B22" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="30">
         <v>0.65500000000000003</v>
@@ -10877,47 +12102,47 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="28">
         <v>0.19</v>
       </c>
       <c r="E24" s="29">
         <f>IF(Main!D18="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="38">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="36"/>
       <c r="B25" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" s="30">
         <v>0.159</v>
       </c>
       <c r="E25" s="29">
         <f>IF(Main!D18="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="38">
         <f t="shared" si="1"/>
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.100000000000001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -10925,170 +12150,170 @@
       <c r="E26" s="31"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6">
       <c r="A27" s="36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D27" s="28">
         <v>2.7E-2</v>
       </c>
       <c r="E27" s="29">
         <f>IF(Main!D20="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="38">
         <f t="shared" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="36"/>
       <c r="B28" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28" s="28">
         <v>0.104</v>
       </c>
       <c r="E28" s="29">
         <f>IF(Main!D20="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="1"/>
-        <v>0.104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="54"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="31"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6">
       <c r="A30" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="56">
+        <v>31</v>
+      </c>
+      <c r="D30" s="50">
         <v>0.16400000000000001</v>
       </c>
       <c r="E30" s="29">
         <f>IF(Main!D22="Male",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="38">
         <f t="shared" si="1"/>
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="36"/>
       <c r="B31" s="26" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="56">
+        <v>32</v>
+      </c>
+      <c r="D31" s="50">
         <v>0.16900000000000001</v>
       </c>
       <c r="E31" s="29">
         <f>IF(Main!D22="Male",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="38">
         <f t="shared" si="1"/>
-        <v>0.16900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="52"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6">
       <c r="A33" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="56">
+        <v>31</v>
+      </c>
+      <c r="D33" s="50">
         <v>0.13700000000000001</v>
       </c>
       <c r="E33" s="29">
         <f>IF(Main!D24="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="38">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="36"/>
       <c r="B34" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="56">
+        <v>32</v>
+      </c>
+      <c r="D34" s="50">
         <v>0.14099999999999999</v>
       </c>
       <c r="E34" s="29">
         <f>IF(Main!D24="Yes",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="38">
         <f t="shared" si="1"/>
-        <v>0.14099999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6">
       <c r="A36" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="57">
+        <v>7</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="51">
         <v>1.129</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="47">
         <f>IF(Main!D26="Yes",1, IF(Main!D26="No",0,"N/A"))</f>
         <v>0</v>
       </c>
@@ -11097,110 +12322,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6">
       <c r="A37" s="36"/>
       <c r="B37" s="26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="49"/>
       <c r="E37" s="29"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6" ht="17.100000000000001" thickBot="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="39"/>
       <c r="B38" s="40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C38" s="44"/>
       <c r="D38" s="41"/>
       <c r="E38" s="42"/>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6">
       <c r="A39" s="18"/>
       <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="15.95" customHeight="1">
-      <c r="D40" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="28">
-        <f>SUM(F3,F6,F9,,F12,F15,F18,F21,F24,F27,F30,F33,F36)</f>
-        <v>4.2760700000000007</v>
+      <c r="D40" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="52">
+        <f>SUM(F3,F6,F9,F12,F15,F18,F21,F24,F27,F30,F33,F36)</f>
+        <v>1.8000700000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.95" customHeight="1">
-      <c r="D41" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="28">
-        <f>SUM(F4,F7,F10,,F13,F16,F19,F22,F25,F28,F31,F34)</f>
-        <v>4.3734799999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75">
+      <c r="D41" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="52">
+        <f>SUM(F4,F7,F10,F13,F16,F19,F22,F25,F28,F31,F34)</f>
+        <v>1.8154800000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
-      <c r="D43" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="58">
+    <row r="43" spans="1:6">
+      <c r="D43" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="62"/>
+      <c r="F43" s="53">
         <f>1-0.9916195^EXP(F40)</f>
-        <v>0.45424083574651875</v>
+        <v>4.9641760056954864E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="D44" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="55">
+      <c r="D44" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="61"/>
+      <c r="F44" s="54">
         <f>1-0.9945524^EXP(F41)</f>
-        <v>0.35162135426019614</v>
+        <v>3.3004741614408029E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="D46" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="28">
+      <c r="D46" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="61"/>
+      <c r="F46" s="52">
         <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F43*100,"NA")</f>
-        <v>45.424083574651874</v>
+        <v>4.9641760056954869</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="D47" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="28">
+      <c r="D47" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="61"/>
+      <c r="F47" s="52">
         <f>IF(AND(Main!D4&gt;=50,Main!D4 &lt;=73),F44*100,"NA")</f>
-        <v>35.162135426019617</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75"/>
-    <row r="50" ht="15.75"/>
-    <row r="51" ht="15.75"/>
-    <row r="52" ht="15.75"/>
-    <row r="53" ht="15.75"/>
-    <row r="54" ht="15.75"/>
+        <v>3.3004741614408029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="49" spans="4:7" hidden="1">
+      <c r="D49" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>F47</f>
+        <v>3.3004741614408029</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" hidden="1">
+      <c r="D50" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>F46</f>
+        <v>4.9641760056954869</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" hidden="1"/>
+    <row r="52" spans="4:7" hidden="1"/>
+    <row r="53" spans="4:7" hidden="1"/>
+    <row r="54" spans="4:7"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e3VDwt9Yey2xeHzzZsb4wDefRxqUK+Hh5XLcMroOmddREIzcwejtCdwp4pwKccYr2rCCNiIXx+fk2BCGrBBstg==" saltValue="1OAEER3kaXkJrq6L6V8I2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
